--- a/Sci fair data 2020.xlsx
+++ b/Sci fair data 2020.xlsx
@@ -1,24 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22508"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waima.LAPTOP-BJQ0UNSN\Documents\Sci-fair-2020-final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Minhtet\Documents\Sci-fair-2020-final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC99ACA-C50B-4771-AA9F-1931769629FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C77337D2-F9D1-443D-AA02-67E8DC077D04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="5" xr2:uid="{D661C8C3-1BE4-4D86-85DE-0C6A276DE068}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{D661C8C3-1BE4-4D86-85DE-0C6A276DE068}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Changes in theta" sheetId="1" r:id="rId1"/>
+    <sheet name="Angles" sheetId="6" r:id="rId2"/>
+    <sheet name="Changes in mass" sheetId="2" r:id="rId3"/>
+    <sheet name="Length" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>angle vari</t>
   </si>
@@ -59,40 +57,13 @@
     <t>inverse ratio</t>
   </si>
   <si>
-    <t>mass2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mass1</t>
-  </si>
-  <si>
     <t>div time</t>
-  </si>
-  <si>
-    <t>inv mass ratio</t>
   </si>
   <si>
     <t>mass diff</t>
   </si>
   <si>
     <t>inv mass diff</t>
-  </si>
-  <si>
-    <t>Th1</t>
-  </si>
-  <si>
-    <t>Th2</t>
-  </si>
-  <si>
-    <t>Div time</t>
-  </si>
-  <si>
-    <t>---------------------------------------</t>
-  </si>
-  <si>
-    <t>--------------------------------------</t>
-  </si>
-  <si>
-    <t>mass difference</t>
   </si>
   <si>
     <t>L1</t>
@@ -120,6 +91,9 @@
   </si>
   <si>
     <t>notes</t>
+  </si>
+  <si>
+    <t>PE</t>
   </si>
 </sst>
 </file>
@@ -155,10 +129,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -231,7 +204,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>'Changes in theta'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -266,7 +239,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$18</c:f>
+              <c:f>'Changes in theta'!$A$2:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="17"/>
@@ -320,7 +293,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$18</c:f>
+              <c:f>'Changes in theta'!$B$2:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -582,6 +555,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>The</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Effect of Mass on Critical Angle</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -622,7 +625,1009 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet5!$E$1</c:f>
+              <c:f>'Changes in mass'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>minimum div.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="0.1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Changes in mass'!$C$2:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Changes in mass'!$G$2:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>53.49</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>85.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>79.150000000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>72.56</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90.57</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A482-404A-B11C-BCCD1FE274BD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="381226480"/>
+        <c:axId val="381224880"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="381226480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Mass</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> ratio (m1/m2)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="381224880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="381224880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Critical</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Angle(</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0">
+                    <a:latin typeface="Trebuchet MS" panose="020B0603020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>°)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="381226480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>The</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Effect of Mass Mass Difference on Critical Angle </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Changes in mass'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>minimum div.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Changes in mass'!$E$2:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Changes in mass'!$G$2:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>53.49</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>85.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>79.150000000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>72.56</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90.57</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E664-4B96-A761-5D99203EC78B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="645703696"/>
+        <c:axId val="645705296"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="645703696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Mass</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> difference (m1-m2)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="645705296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="645705296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Critical</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Angle (</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0">
+                    <a:latin typeface="Trebuchet MS" panose="020B0603020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>°)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="645703696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Length!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -655,7 +1660,347 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet5!$D$2:$D$8</c:f>
+              <c:f>Length!$C$2:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Length!$E$2:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>79.150000000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100.37</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98.68</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100.47</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>77.17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>68.150000000000006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-853E-4D63-B5E6-A38854E926F1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="412700464"/>
+        <c:axId val="238899896"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="412700464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="238899896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="238899896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="412700464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Length!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>critical angle</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Length!$D$2:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -685,7 +2030,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet5!$E$2:$E$8</c:f>
+              <c:f>Length!$E$2:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -907,7 +2252,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -962,7 +2307,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet6!$B$1</c:f>
+              <c:f>Angles!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -995,7 +2340,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet6!$A$2:$A$8</c:f>
+              <c:f>Angles!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1025,7 +2370,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet6!$B$2:$B$8</c:f>
+              <c:f>Angles!$B$2:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1247,7 +2592,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1302,7 +2647,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet6!$B$1</c:f>
+              <c:f>Angles!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1335,7 +2680,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet6!$A$2:$A$12</c:f>
+              <c:f>Angles!$A$2:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1377,7 +2722,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet6!$B$2:$B$12</c:f>
+              <c:f>Angles!$B$2:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1611,7 +2956,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1666,7 +3011,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet6!$B$1</c:f>
+              <c:f>Angles!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1699,7 +3044,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet6!$A$2:$A$13</c:f>
+              <c:f>Angles!$A$2:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1744,7 +3089,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet6!$B$2:$B$13</c:f>
+              <c:f>Angles!$B$2:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1981,7 +3326,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2036,7 +3381,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet6!$B$1</c:f>
+              <c:f>Angles!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2071,7 +3416,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet6!$A$2:$A$13</c:f>
+              <c:f>Angles!$A$2:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2116,7 +3461,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet6!$B$2:$B$13</c:f>
+              <c:f>Angles!$B$2:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2346,7 +3691,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2392,16 +3737,26 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.9264531435349939E-2"/>
+          <c:y val="8.3574879227053145E-2"/>
+          <c:w val="0.90874267940706699"/>
+          <c:h val="0.85603864734299517"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet6!$B$1</c:f>
+              <c:f>Angles!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2436,7 +3791,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet6!$A$2:$A$20</c:f>
+              <c:f>Angles!$A$2:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -2499,7 +3854,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet6!$B$2:$B$20</c:f>
+              <c:f>Angles!$B$2:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -2560,7 +3915,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3EB1-44AB-B8A0-948376303AB9}"/>
@@ -2754,7 +4109,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2809,11 +4164,442 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$G$1</c:f>
+              <c:f>Angles!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>minimum div.</c:v>
+                  <c:v>PE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Angles!$F$2:$F$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Angles!$G$2:$G$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>27.470182646465982</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52.905315806976155</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.110184488852466</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.663985346593567</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-24.82575013337825</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-52.700916823661785</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.662634257669033</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-51.709791751241511</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40.493037215244897</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-21.300383206932544</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.8700492941046747</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-18.056215722150338</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-38.094542692751034</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19.949921355985687</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-6.9089257549489691</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>52.905315806976155</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>30.169364407932942</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>27.470182646465982</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D1A6-4B6B-98A6-8E33612D186C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="460581944"/>
+        <c:axId val="663229432"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="460581944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="663229432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="663229432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="460581944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>The Effect of Potential Energy on Divergence Time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Angles!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>time</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2842,7 +4628,413 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$D$2:$D$9</c:f>
+              <c:f>Angles!$G$2:$G$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>27.470182646465982</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52.905315806976155</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.110184488852466</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.663985346593567</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-24.82575013337825</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-52.700916823661785</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.662634257669033</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-51.709791751241511</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40.493037215244897</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-21.300383206932544</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.8700492941046747</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-18.056215722150338</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-38.094542692751034</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19.949921355985687</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-6.9089257549489691</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>52.905315806976155</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>30.169364407932942</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>27.470182646465982</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Angles!$H$2:$H$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3766-49B9-97E3-3F4F0FC68F79}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="773462584"/>
+        <c:axId val="773462904"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="773462584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="773462904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="773462904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="773462584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Changes in mass'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>minimum div.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Changes in mass'!$D$2:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2872,7 +5064,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$G$2:$G$9</c:f>
+              <c:f>'Changes in mass'!$G$2:$G$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3224,3254 +5416,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>The</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Effect of Mass on Critical Angle</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>minimum div.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:errBars>
-            <c:errDir val="x"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="fixedVal"/>
-            <c:noEndCap val="0"/>
-            <c:val val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="fixedVal"/>
-            <c:noEndCap val="0"/>
-            <c:val val="0.1"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet2!$C$2:$C$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.66666666666666663</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.33333333333333331</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet2!$G$2:$G$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>53.49</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>85.8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>79.150000000000006</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>72.56</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>90.57</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A482-404A-B11C-BCCD1FE274BD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="381226480"/>
-        <c:axId val="381224880"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="381226480"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Mass</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> ratio (m1/m2)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="381224880"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="381224880"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Critical</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Angle(</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0">
-                    <a:latin typeface="Trebuchet MS" panose="020B0603020202020204" pitchFamily="34" charset="0"/>
-                  </a:rPr>
-                  <a:t>°)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="381226480"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>The</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Effect of Mass Mass Difference on Critical Angle </a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>minimum div.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet2!$E$2:$E$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet2!$G$2:$G$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>53.49</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>85.8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>79.150000000000006</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>72.56</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>90.57</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E664-4B96-A761-5D99203EC78B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="645703696"/>
-        <c:axId val="645705296"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="645703696"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Mass</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> difference (m1-m2)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="645705296"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="645705296"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Critical</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Angle (</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0">
-                    <a:latin typeface="Trebuchet MS" panose="020B0603020202020204" pitchFamily="34" charset="0"/>
-                  </a:rPr>
-                  <a:t>°)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="645703696"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Div time</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet3!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>div time</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:errBars>
-            <c:errDir val="x"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="fixedVal"/>
-            <c:noEndCap val="0"/>
-            <c:val val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="fixedVal"/>
-            <c:noEndCap val="0"/>
-            <c:val val="1.5"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet3!$D$2:$D$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.33333333333333331</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.66666666666666663</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet3!$E$9:$E$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3778-4350-9318-43FCD854844A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="387947440"/>
-        <c:axId val="387946480"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="387947440"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="387946480"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="387946480"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="387947440"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="108"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="8"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>The</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Effect of Mass on</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t> Splitting Time</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet3!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>div time</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:errBars>
-            <c:errDir val="x"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="fixedVal"/>
-            <c:noEndCap val="0"/>
-            <c:val val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="fixedVal"/>
-            <c:noEndCap val="0"/>
-            <c:val val="1.5"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet3!$C$2:$C$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.66666666666666663</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.33333333333333331</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet3!$E$9:$E$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-62DF-46BB-B0BB-45F7301142F0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="581937784"/>
-        <c:axId val="581940664"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="581937784"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Mass</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> ratio (m1/m2)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="581940664"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="581940664"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Splitting</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> time (sec)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="581937784"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Splitting</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Time</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet3!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>div time</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet3!$E$2:$E$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet3!$F$2:$F$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>13</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C3C7-4AE1-8DEA-D71B3C1673B1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="645698576"/>
-        <c:axId val="645701136"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="645698576"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Mass</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Difference </a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="645701136"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="645701136"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Splitting</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Time(sec)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="645698576"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>The</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Effect of Mass Ratio on Splitting Time</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet3!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>div time</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet3!$C$2:$C$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.66666666666666663</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.33333333333333331</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet3!$F$2:$F$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>13</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CEBE-4841-9B5A-429ECFDCA830}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="538299384"/>
-        <c:axId val="538300664"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="538299384"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Mass Ratio</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> (m1/m2) </a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="538300664"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="538300664"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Splitting</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> time(sec)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="538299384"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet5!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>critical angle</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="38100" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet5!$C$2:$C$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.33333333333333331</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.66666666666666663</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet5!$E$2:$E$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>79.150000000000006</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100.37</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>98.68</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100.47</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>77.17</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>68.150000000000006</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>80</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-853E-4D63-B5E6-A38854E926F1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="412700464"/>
-        <c:axId val="238899896"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="412700464"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="238899896"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="238899896"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="412700464"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -6672,86 +5616,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -6913,8 +5777,42 @@
 </file>
 
 <file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="19">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
 </cs:colorStyle>
 </file>
 
@@ -9618,1038 +8516,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -14823,6 +12689,263 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>624840</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC2C7C9F-99A2-422B-B0EF-E9204D429344}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>622935</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>59055</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>394335</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADBB4A65-D4BC-4528-808E-45A7F79C3E6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>354330</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DEB5AFE-2543-49AE-9E67-87996E642CEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>461010</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>339090</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EB6A09F-2666-45E8-9A46-3149A30A612F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>445770</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Chart 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6DFD06D-74B4-4600-89D0-29F1FD25C62C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>3810</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{495D4CC2-5343-44B2-8239-9F98393884AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>110490</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>659130</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1423D2B-2CB6-4689-BC32-41888D1AB945}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>518160</xdr:colOff>
       <xdr:row>7</xdr:row>
@@ -14859,16 +12982,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>140970</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>411480</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>140970</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14897,14 +13020,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>26670</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>125730</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>102870</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14924,155 +13047,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>314960</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>16510</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>10160</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>16510</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DDD664E-38C9-4F03-99E8-BF9D71E2112E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>525780</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>87630</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>87630</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27E47C40-DE75-4E5D-9E56-2ED0E7E3A99D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>102870</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>120015</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>407670</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>5715</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B93905C1-945D-4719-83AD-63F5E3C448EA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>140970</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>26670</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F13CA59-D00E-4B65-BD24-9C1D83C61837}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -15150,191 +13124,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>624840</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>49530</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>396240</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC2C7C9F-99A2-422B-B0EF-E9204D429344}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>622935</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>59055</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>394335</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADBB4A65-D4BC-4528-808E-45A7F79C3E6D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>643890</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DEB5AFE-2543-49AE-9E67-87996E642CEF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>346710</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>224790</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EB6A09F-2666-45E8-9A46-3149A30A612F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>674370</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>205740</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>445770</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="15" name="Chart 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6DFD06D-74B4-4600-89D0-29F1FD25C62C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -15618,7 +13407,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -15765,11 +13554,561 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{497EF7F4-C890-407D-A39A-17E29C41F995}">
+  <dimension ref="A1:R20"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>-180</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ref="D2:D19" si="0">A2+B2</f>
+        <v>-180</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ref="G2:G18" si="1">2*9.8*(COS(A2)+2*(COS(B2)))</f>
+        <v>27.470182646465982</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>80.2</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>-150</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>-150</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="1"/>
+        <v>52.905315806976155</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="K3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>-120</v>
+      </c>
+      <c r="B4">
+        <v>36.03</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>-83.97</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E16" si="2">A4/B4</f>
+        <v>-3.330557868442964</v>
+      </c>
+      <c r="F4">
+        <v>137</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>12.110184488852466</v>
+      </c>
+      <c r="H4">
+        <v>137</v>
+      </c>
+      <c r="J4">
+        <v>88.72</v>
+      </c>
+      <c r="K4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>-90</v>
+      </c>
+      <c r="B5">
+        <v>56</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>-34</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="2"/>
+        <v>-1.6071428571428572</v>
+      </c>
+      <c r="F5">
+        <v>150</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>24.663985346593567</v>
+      </c>
+      <c r="H5">
+        <v>150</v>
+      </c>
+      <c r="J5">
+        <v>47.85</v>
+      </c>
+      <c r="K5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>-45</v>
+      </c>
+      <c r="B6">
+        <v>79</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>-0.569620253164557</v>
+      </c>
+      <c r="F6">
+        <v>174</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>-24.82575013337825</v>
+      </c>
+      <c r="H6">
+        <v>174</v>
+      </c>
+      <c r="J6">
+        <v>14.76</v>
+      </c>
+      <c r="K6">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>-15</v>
+      </c>
+      <c r="B7">
+        <v>85.09</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>70.09</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="2"/>
+        <v>-0.17628393465742154</v>
+      </c>
+      <c r="F7">
+        <v>140</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>-52.700916823661785</v>
+      </c>
+      <c r="H7">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>80.010000000000005</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>80.010000000000005</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>119</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>15.662634257669033</v>
+      </c>
+      <c r="H8">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>59.34</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>74.34</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>0.25278058645096058</v>
+      </c>
+      <c r="F9">
+        <v>174</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>-51.709791751241511</v>
+      </c>
+      <c r="H9">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>30</v>
+      </c>
+      <c r="B10">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>105.1</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="2"/>
+        <v>0.39946737683089217</v>
+      </c>
+      <c r="F10">
+        <v>115</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>40.493037215244897</v>
+      </c>
+      <c r="H10">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>45</v>
+      </c>
+      <c r="B11">
+        <v>72.89</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>117.89</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="2"/>
+        <v>0.61736863767320616</v>
+      </c>
+      <c r="F11">
+        <v>165</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>-21.300383206932544</v>
+      </c>
+      <c r="H11">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>60</v>
+      </c>
+      <c r="B12">
+        <v>88.72</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>148.72</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="2"/>
+        <v>0.67628494138863837</v>
+      </c>
+      <c r="F12">
+        <v>115</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>9.8700492941046747</v>
+      </c>
+      <c r="H12">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>81.5</v>
+      </c>
+      <c r="B13">
+        <v>60</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>141.5</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="2"/>
+        <v>1.3583333333333334</v>
+      </c>
+      <c r="F13">
+        <v>172</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>-18.056215722150338</v>
+      </c>
+      <c r="H13">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>90</v>
+      </c>
+      <c r="B14">
+        <v>47.85</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>137.85</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="2"/>
+        <v>1.8808777429467085</v>
+      </c>
+      <c r="F14">
+        <v>103</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>-38.094542692751034</v>
+      </c>
+      <c r="H14">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>95.03</v>
+      </c>
+      <c r="B15">
+        <v>30</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>125.03</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="2"/>
+        <v>3.1676666666666669</v>
+      </c>
+      <c r="F15">
+        <v>110</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>19.949921355985687</v>
+      </c>
+      <c r="H15">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>120</v>
+      </c>
+      <c r="B16">
+        <v>14.76</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>134.76</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="2"/>
+        <v>8.1300813008130088</v>
+      </c>
+      <c r="F16">
+        <v>117</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>-6.9089257549489691</v>
+      </c>
+      <c r="H16">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>150</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>73</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>52.905315806976155</v>
+      </c>
+      <c r="H17">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>155.03</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>155.03</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>30.169364407932942</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>180</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <f>2*9.8*(COS(A19)+2*(COS(B19)))</f>
+        <v>27.470182646465982</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P20">
+        <v>34</v>
+      </c>
+      <c r="Q20">
+        <v>38</v>
+      </c>
+      <c r="R20">
+        <f>MEDIAN(P20,Q20)</f>
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:H20">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED711C71-507A-4E20-81F7-D0C460DBAE92}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -15777,7 +14116,7 @@
     <col min="3" max="3" width="8.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -15791,16 +14130,19 @@
         <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3</v>
       </c>
@@ -15826,8 +14168,11 @@
       <c r="G2">
         <v>53.49</v>
       </c>
+      <c r="H2">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -15853,8 +14198,11 @@
       <c r="G3">
         <v>79</v>
       </c>
+      <c r="H3">
+        <v>16</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -15880,8 +14228,11 @@
       <c r="G4">
         <v>85.8</v>
       </c>
+      <c r="H4">
+        <v>28</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -15907,8 +14258,11 @@
       <c r="G5">
         <v>79.150000000000006</v>
       </c>
+      <c r="H5">
+        <v>18</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -15934,8 +14288,11 @@
       <c r="G6">
         <v>72.56</v>
       </c>
+      <c r="H6">
+        <v>28</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -15961,8 +14318,11 @@
       <c r="G7">
         <v>60</v>
       </c>
+      <c r="H7">
+        <v>12</v>
+      </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -15988,9 +14348,12 @@
       <c r="G8">
         <v>90.57</v>
       </c>
+      <c r="H8">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E10">
+  <sortState ref="A2:E10">
     <sortCondition ref="D1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15998,336 +14361,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{522B9EC1-3581-448A-80BA-F1FE6FCCDA0C}">
-  <dimension ref="A1:F8"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="8.69921875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <f t="shared" ref="C2:C8" si="0">A2/B2</f>
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <f t="shared" ref="D2:D8" si="1">B2/A2</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="E2">
-        <f>(A2-B2)</f>
-        <v>2</v>
-      </c>
-      <c r="F2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E8" si="2">(A3-B3)</f>
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="1"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="1"/>
-        <v>1.5</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="2"/>
-        <v>-1</v>
-      </c>
-      <c r="F6">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="2"/>
-        <v>-1</v>
-      </c>
-      <c r="F7">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="2"/>
-        <v>-2</v>
-      </c>
-      <c r="F8">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E8">
-    <sortCondition ref="D2"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C61EC7A-8304-424C-863E-FB3DDB9FA7B8}">
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>-135</v>
-      </c>
-      <c r="B2">
-        <v>-90</v>
-      </c>
-      <c r="C2">
-        <v>14.3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>135</v>
-      </c>
-      <c r="B3">
-        <v>90</v>
-      </c>
-      <c r="C3">
-        <v>14.8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>90</v>
-      </c>
-      <c r="B4">
-        <v>-135</v>
-      </c>
-      <c r="C4">
-        <v>14.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>-90</v>
-      </c>
-      <c r="B5">
-        <v>135</v>
-      </c>
-      <c r="C5">
-        <v>11.6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>180</v>
-      </c>
-      <c r="B7">
-        <v>135</v>
-      </c>
-      <c r="C7">
-        <v>12.3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>135</v>
-      </c>
-      <c r="B8">
-        <v>180</v>
-      </c>
-      <c r="C8">
-        <v>13.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>-135</v>
-      </c>
-      <c r="B9">
-        <v>-180</v>
-      </c>
-      <c r="C9">
-        <v>11.7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>-180</v>
-      </c>
-      <c r="B10">
-        <v>-135</v>
-      </c>
-      <c r="C10">
-        <v>13.1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B13D7108-92CF-4008-808E-3A62142DB68D}">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -16339,19 +14373,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -16488,424 +14522,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{497EF7F4-C890-407D-A39A-17E29C41F995}">
-  <dimension ref="A1:R20"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>-180</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <f t="shared" ref="D2:D19" si="0">A2+B2</f>
-        <v>-180</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>80.2</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>-150</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <f t="shared" si="0"/>
-        <v>-150</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>75.099999999999994</v>
-      </c>
-      <c r="K3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>-120</v>
-      </c>
-      <c r="B4">
-        <v>36.03</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
-        <v>-83.97</v>
-      </c>
-      <c r="E4">
-        <f t="shared" ref="E4:E16" si="1">A4/B4</f>
-        <v>-3.330557868442964</v>
-      </c>
-      <c r="F4">
-        <v>137</v>
-      </c>
-      <c r="J4">
-        <v>88.72</v>
-      </c>
-      <c r="K4">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>-90</v>
-      </c>
-      <c r="B5">
-        <v>56</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>-34</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="1"/>
-        <v>-1.6071428571428572</v>
-      </c>
-      <c r="F5">
-        <v>150</v>
-      </c>
-      <c r="J5">
-        <v>47.85</v>
-      </c>
-      <c r="K5">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>-45</v>
-      </c>
-      <c r="B6">
-        <v>79</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="1"/>
-        <v>-0.569620253164557</v>
-      </c>
-      <c r="F6">
-        <v>174</v>
-      </c>
-      <c r="J6">
-        <v>14.76</v>
-      </c>
-      <c r="K6">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>-15</v>
-      </c>
-      <c r="B7">
-        <v>85.09</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>70.09</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="1"/>
-        <v>-0.17628393465742154</v>
-      </c>
-      <c r="F7">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <v>80.010000000000005</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>80.010000000000005</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>15</v>
-      </c>
-      <c r="B9">
-        <v>59.34</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>74.34</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="1"/>
-        <v>0.25278058645096058</v>
-      </c>
-      <c r="F9">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>30</v>
-      </c>
-      <c r="B10">
-        <v>75.099999999999994</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>105.1</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="1"/>
-        <v>0.39946737683089217</v>
-      </c>
-      <c r="F10">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>45</v>
-      </c>
-      <c r="B11">
-        <v>72.89</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>117.89</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="1"/>
-        <v>0.61736863767320616</v>
-      </c>
-      <c r="F11">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>60</v>
-      </c>
-      <c r="B12">
-        <v>88.72</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>148.72</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="1"/>
-        <v>0.67628494138863837</v>
-      </c>
-      <c r="F12">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>81.5</v>
-      </c>
-      <c r="B13">
-        <v>60</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="0"/>
-        <v>141.5</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="1"/>
-        <v>1.3583333333333334</v>
-      </c>
-      <c r="F13">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>90</v>
-      </c>
-      <c r="B14">
-        <v>47.85</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="0"/>
-        <v>137.85</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="1"/>
-        <v>1.8808777429467085</v>
-      </c>
-      <c r="F14">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>95.03</v>
-      </c>
-      <c r="B15">
-        <v>30</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="0"/>
-        <v>125.03</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="1"/>
-        <v>3.1676666666666669</v>
-      </c>
-      <c r="F15">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>120</v>
-      </c>
-      <c r="B16">
-        <v>14.76</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="0"/>
-        <v>134.76</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="1"/>
-        <v>8.1300813008130088</v>
-      </c>
-      <c r="F16">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>150</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>155.03</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="0"/>
-        <v>155.03</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>180</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="0"/>
-        <v>180</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="P20">
-        <v>34</v>
-      </c>
-      <c r="Q20">
-        <v>38</v>
-      </c>
-      <c r="R20">
-        <f>MEDIAN(P20,Q20)</f>
-        <v>36</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F21">
-    <sortCondition ref="A1"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
